--- a/Traveloka_DataAutomation_Portal_IATAID02/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_IATAID02/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_IATAID02\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0E79FF-4D84-49F7-8F3C-178CC351B349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42BA340-3945-4AD0-B354-FE1168EBB645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1680" windowWidth="21588" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="852" windowWidth="19284" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -260,21 +260,6 @@
     <t>https://portal.iata.org/ISSP_OperationalCalendarDetails?MainNav=resources&amp;subNav=OperationalCalendar&amp;mid=M2S4&amp;ftype=BSP%2FCASS&amp;fsubtype=BSP%20International&amp;fcycle=null&amp;fcountry=a0n200000016qIvAAI&amp;ffrequency=W&amp;fcurrency=all</t>
   </si>
   <si>
-    <t>IATAHomeURL</t>
-  </si>
-  <si>
-    <t>https://portal.iata.org/s/</t>
-  </si>
-  <si>
-    <t>IATAInboxURL</t>
-  </si>
-  <si>
-    <t>https://www.newbsplink.iata.org/files/reports-communications/reports/inbox</t>
-  </si>
-  <si>
-    <t>IATABSPURL</t>
-  </si>
-  <si>
     <t>https://portal.iata.org/idp/login?app=0spw0000000blJn</t>
   </si>
   <si>
@@ -282,6 +267,9 @@
   </si>
   <si>
     <t>https://portal.iata.org/ISSP_AccountStatements?retURL=/ISSP_Homepage</t>
+  </si>
+  <si>
+    <t>IATAReportUrl</t>
   </si>
 </sst>
 </file>
@@ -340,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -351,7 +339,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -668,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -774,45 +761,31 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="12" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
+    <row r="12" spans="1:26" ht="14.3" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.3" customHeight="1"/>
@@ -1792,18 +1765,15 @@
     <row r="990" ht="14.3" customHeight="1"/>
     <row r="991" ht="14.3" customHeight="1"/>
     <row r="992" ht="14.3" customHeight="1"/>
-    <row r="993" ht="14.3" customHeight="1"/>
-    <row r="994" ht="14.3" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{FC4F6AA1-6F53-484B-87A7-6D89EF048FF7}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{ECB0B6C2-A0A0-46F8-B5E4-F57215918CDE}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{10A47508-507B-4F31-AA67-B8507279A96E}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{B79BD995-41A5-4259-A092-1610EE903DE4}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{10A47508-507B-4F31-AA67-B8507279A96E}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{B79BD995-41A5-4259-A092-1610EE903DE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Traveloka_DataAutomation_Portal_IATAID02/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_IATAID02/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_IATAID02\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42BA340-3945-4AD0-B354-FE1168EBB645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B12B962-E6C1-4D87-91EC-0F4CFB3C6BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="852" windowWidth="19284" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23232" windowHeight="11496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -185,12 +185,6 @@
     <t>PathSAKey</t>
   </si>
   <si>
-    <t>Captcha_SiteKey</t>
-  </si>
-  <si>
-    <t>Captcha_RuleId</t>
-  </si>
-  <si>
     <t>[Dev] RPA_Moon_UploadBucket</t>
   </si>
   <si>
@@ -224,33 +218,9 @@
     <t>RPA_Moon_SenderName</t>
   </si>
   <si>
-    <t>RPA_Moon_Captcha_RuleId</t>
-  </si>
-  <si>
-    <t>RPA_Moon_GCaptcha_RuleId</t>
-  </si>
-  <si>
-    <t>GCaptcha_RuleId</t>
-  </si>
-  <si>
-    <t>RPA021_MOLPAY_Captcha_SiteKey</t>
-  </si>
-  <si>
     <t>RPA_Moon_Cred_Gmail</t>
   </si>
   <si>
-    <t>ReportPage</t>
-  </si>
-  <si>
-    <t>https://b2b.malindoair.com/MalindoAirAgentsPortal/Agents/Statements.aspx</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathCaptchaHandler</t>
-  </si>
-  <si>
-    <t>PathCaptchaHandler</t>
-  </si>
-  <si>
     <t>[Dev] RPA_Moon_SheetIdConfig_Transport</t>
   </si>
   <si>
@@ -270,6 +240,12 @@
   </si>
   <si>
     <t>IATAReportUrl</t>
+  </si>
+  <si>
+    <t>IATAHomeUrl</t>
+  </si>
+  <si>
+    <t>https://portal.iata.org/s/</t>
   </si>
 </sst>
 </file>
@@ -328,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,6 +316,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -655,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z992"/>
+  <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -705,10 +682,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.3" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -746,7 +723,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -754,34 +731,34 @@
     </row>
     <row r="8" spans="1:26" ht="14.3" customHeight="1">
       <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.3" customHeight="1">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.3" customHeight="1">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.3" customHeight="1">
       <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.3" customHeight="1"/>
@@ -1764,16 +1741,16 @@
     <row r="989" ht="14.3" customHeight="1"/>
     <row r="990" ht="14.3" customHeight="1"/>
     <row r="991" ht="14.3" customHeight="1"/>
-    <row r="992" ht="14.3" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{FC4F6AA1-6F53-484B-87A7-6D89EF048FF7}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{10A47508-507B-4F31-AA67-B8507279A96E}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{B79BD995-41A5-4259-A092-1610EE903DE4}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{FC4F6AA1-6F53-484B-87A7-6D89EF048FF7}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{10A47508-507B-4F31-AA67-B8507279A96E}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{B79BD995-41A5-4259-A092-1610EE903DE4}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{0265C98E-D477-4A03-9C4B-8A6D3863C069}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2943,10 +2920,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -2998,7 +2975,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.3" customHeight="1">
@@ -3006,7 +2983,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.3" customHeight="1">
@@ -3014,7 +2991,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.3" customHeight="1">
@@ -3022,65 +2999,37 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.3" customHeight="1">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.3" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.3" customHeight="1">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.3" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
+    <row r="9" spans="1:26" ht="14.3" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.3" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.3" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.3" customHeight="1"/>
@@ -4065,10 +4014,6 @@
     <row r="994" ht="14.3" customHeight="1"/>
     <row r="995" ht="14.3" customHeight="1"/>
     <row r="996" ht="14.3" customHeight="1"/>
-    <row r="997" ht="14.3" customHeight="1"/>
-    <row r="998" ht="14.3" customHeight="1"/>
-    <row r="999" ht="14.3" customHeight="1"/>
-    <row r="1000" ht="14.3" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traveloka_DataAutomation_Portal_IATAID02/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_IATAID02/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_IATAID02\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B12B962-E6C1-4D87-91EC-0F4CFB3C6BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB680F68-0CD6-45AA-A417-88D4AC8FC38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23232" windowHeight="11496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>https://portal.iata.org/s/</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_PathTabula</t>
+  </si>
+  <si>
+    <t>PathTabula</t>
   </si>
 </sst>
 </file>
@@ -336,9 +342,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +382,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -482,7 +488,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -624,7 +630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2923,7 +2929,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -3026,7 +3032,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.3" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.3" customHeight="1"/>

--- a/Traveloka_DataAutomation_Portal_IATAID02/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_IATAID02/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_IATAID02\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB680F68-0CD6-45AA-A417-88D4AC8FC38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F01842-8761-4078-B976-8C6E3694FFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23232" windowHeight="11496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="28992" windowHeight="14736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>PathTabula</t>
+  </si>
+  <si>
+    <t>PathTemplateIata</t>
+  </si>
+  <si>
+    <t>Data\Template\Template_IATA.xlsx</t>
   </si>
 </sst>
 </file>
@@ -640,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -767,7 +773,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.3" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.3" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.3" customHeight="1"/>
@@ -2928,7 +2941,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Traveloka_DataAutomation_Portal_IATAID02/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_IATAID02/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_IATAID02\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F01842-8761-4078-B976-8C6E3694FFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9ED384-C98F-4A69-8FC0-92ED3B230C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="28992" windowHeight="14736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="28992" windowHeight="14736" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -185,9 +185,6 @@
     <t>PathSAKey</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_UploadBucket</t>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
   </si>
   <si>
@@ -197,21 +194,6 @@
     <t>DialogDownloadChrome</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_PathMasterFolder</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathMailTemplate</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathSaKey</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathDownloadChrome</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_DialogDownloadChrome</t>
-  </si>
-  <si>
     <t>SenderName</t>
   </si>
   <si>
@@ -221,9 +203,6 @@
     <t>RPA_Moon_Cred_Gmail</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_SheetIdConfig_Transport</t>
-  </si>
-  <si>
     <t>IATACalendarURL</t>
   </si>
   <si>
@@ -248,9 +227,6 @@
     <t>https://portal.iata.org/s/</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_PathTabula</t>
-  </si>
-  <si>
     <t>PathTabula</t>
   </si>
   <si>
@@ -258,6 +234,102 @@
   </si>
   <si>
     <t>Data\Template\Template_IATA.xlsx</t>
+  </si>
+  <si>
+    <t>RPA132_IATA_ID02_MailRawTo</t>
+  </si>
+  <si>
+    <t>RPA132_IATA_ID02_MailRawCc</t>
+  </si>
+  <si>
+    <t>RPA133_IATA_MY02_MailRawTo</t>
+  </si>
+  <si>
+    <t>RPA133_IATA_MY02_MailRawCc</t>
+  </si>
+  <si>
+    <t>RPA134_IATA_SG02_MailRawTo</t>
+  </si>
+  <si>
+    <t>RPA134_IATA_SG02_MailRawCc</t>
+  </si>
+  <si>
+    <t>RPA135_IATA_MY12_MailRawTo</t>
+  </si>
+  <si>
+    <t>RPA135_IATA_MY12_MailRawCc</t>
+  </si>
+  <si>
+    <t>RPA136_IATA_TH02_MailRawTo</t>
+  </si>
+  <si>
+    <t>RPA136_IATA_TH02_MailRawCc</t>
+  </si>
+  <si>
+    <t>RPA137_IATA_VN02_MailRawTo</t>
+  </si>
+  <si>
+    <t>RPA137_IATA_VN02_MailRawCc</t>
+  </si>
+  <si>
+    <t>IATAID02_MailRawTo</t>
+  </si>
+  <si>
+    <t>IATAID02_MailRawCc</t>
+  </si>
+  <si>
+    <t>IATAMY02_MailRawTo</t>
+  </si>
+  <si>
+    <t>IATAMY02_MailRawCc</t>
+  </si>
+  <si>
+    <t>IATASG02_MailRawTo</t>
+  </si>
+  <si>
+    <t>IATASG02_MailRawCc</t>
+  </si>
+  <si>
+    <t>IATAMY12_MailRawTo</t>
+  </si>
+  <si>
+    <t>IATAMY12_MailRawCc</t>
+  </si>
+  <si>
+    <t>IATATH02_MailRawTo</t>
+  </si>
+  <si>
+    <t>IATATH02_MailRawCc</t>
+  </si>
+  <si>
+    <t>IATAVN02_MailRawTo</t>
+  </si>
+  <si>
+    <t>IATAVN02_MailRawCc</t>
+  </si>
+  <si>
+    <t>RPA_Moon_UploadBucket</t>
+  </si>
+  <si>
+    <t>RPA_Moon_SheetIdConfig_Transport</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathMasterFolder</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathMailTemplate</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathSaKey</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathDownloadChrome</t>
+  </si>
+  <si>
+    <t>RPA_Moon_DialogDownloadChrome</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathTabula</t>
   </si>
 </sst>
 </file>
@@ -348,9 +420,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -388,7 +460,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -494,7 +566,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -636,7 +708,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -694,10 +766,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.3" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -735,7 +807,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -743,42 +815,42 @@
     </row>
     <row r="8" spans="1:26" ht="14.3" customHeight="1">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.3" customHeight="1">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.3" customHeight="1">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.3" customHeight="1">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.3" customHeight="1">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.3" customHeight="1"/>
@@ -2941,8 +3013,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
@@ -2994,7 +3066,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.3" customHeight="1">
@@ -3002,7 +3074,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.3" customHeight="1">
@@ -3010,7 +3082,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.3" customHeight="1">
@@ -3018,64 +3090,148 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.3" customHeight="1">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.3" customHeight="1">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.3" customHeight="1">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.3" customHeight="1">
       <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.3" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.3" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.3" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.3" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.3" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.3" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.3" customHeight="1"/>
-    <row r="17" ht="14.3" customHeight="1"/>
-    <row r="18" ht="14.3" customHeight="1"/>
-    <row r="19" ht="14.3" customHeight="1"/>
-    <row r="20" ht="14.3" customHeight="1"/>
-    <row r="21" ht="14.3" customHeight="1"/>
-    <row r="22" ht="14.3" customHeight="1"/>
-    <row r="23" ht="14.3" customHeight="1"/>
-    <row r="24" ht="14.3" customHeight="1"/>
-    <row r="25" ht="14.3" customHeight="1"/>
-    <row r="26" ht="14.3" customHeight="1"/>
-    <row r="27" ht="14.3" customHeight="1"/>
-    <row r="28" ht="14.3" customHeight="1"/>
-    <row r="29" ht="14.3" customHeight="1"/>
-    <row r="30" ht="14.3" customHeight="1"/>
-    <row r="31" ht="14.3" customHeight="1"/>
-    <row r="32" ht="14.3" customHeight="1"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.3" customHeight="1">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.3" customHeight="1">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.3" customHeight="1">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.3" customHeight="1">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.3" customHeight="1">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.3" customHeight="1">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.3" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.3" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.3" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.3" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.3" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.3" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.3" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.3" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.3" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.3" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.3" customHeight="1"/>
     <row r="33" ht="14.3" customHeight="1"/>
     <row r="34" ht="14.3" customHeight="1"/>
     <row r="35" ht="14.3" customHeight="1"/>
